--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_22.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_22.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yosuke Kobayashi</t>
+          <t>Naoko Ishikawa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yosuke Kobayashi</t>
+          <t>Naoko Ishikawa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yosuke Kobayashi</t>
+          <t>Naoko Ishikawa</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yosuke Kobayashi</t>
+          <t>Naoko Ishikawa</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yosuke Kobayashi</t>
+          <t>Naoko Ishikawa</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yosuke Kobayashi</t>
+          <t>Naoko Ishikawa</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yosuke Kobayashi</t>
+          <t>Naoko Ishikawa</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yosuke Kobayashi</t>
+          <t>Naoko Ishikawa</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yosuke Kobayashi</t>
+          <t>Naoko Ishikawa</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yosuke Kobayashi</t>
+          <t>Naoko Ishikawa</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yosuke Kobayashi</t>
+          <t>Naoko Ishikawa</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yosuke Kobayashi</t>
+          <t>Naoko Ishikawa</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yosuke Kobayashi</t>
+          <t>Naoko Ishikawa</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yosuke Kobayashi</t>
+          <t>Naoko Ishikawa</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yosuke Kobayashi</t>
+          <t>Naoko Ishikawa</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
